--- a/Team Info.xlsx
+++ b/Team Info.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Leaders</t>
   </si>
@@ -125,6 +125,75 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>4577A</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Janek</t>
+  </si>
+  <si>
+    <t>Mathew K</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Arm right</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Left Front</t>
+  </si>
+  <si>
+    <t>Left Back</t>
+  </si>
+  <si>
+    <t>Right Front</t>
+  </si>
+  <si>
+    <t>Right Back</t>
+  </si>
+  <si>
+    <t>Elevator</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Arm left</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left arm up</t>
+  </si>
+  <si>
+    <t>Left arm down</t>
+  </si>
+  <si>
+    <t>Right arm up</t>
+  </si>
+  <si>
+    <t>Elevator up</t>
+  </si>
+  <si>
+    <t>Elevator down</t>
+  </si>
+  <si>
+    <t>Backflip</t>
   </si>
 </sst>
 </file>
@@ -483,15 +552,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,8 +586,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -530,16 +628,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,11 +661,23 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -576,6 +686,12 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -584,6 +700,12 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -592,6 +714,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -600,6 +728,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -608,6 +742,12 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -616,6 +756,12 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -624,6 +770,12 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -631,6 +783,12 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -648,11 +806,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,15 +837,15 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" hidden="1"/>
+    <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,11 +868,17 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -725,16 +889,25 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -745,11 +918,17 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -776,9 +955,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -790,14 +972,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25"/>
@@ -817,8 +997,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25"/>
